--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Final_v2.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Final_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AA6B58-40E5-4345-A036-69B56970A5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9359BA3-14B2-4277-AC2D-4F2FD4BF1622}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -556,6 +557,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,9 +573,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,47 +1065,47 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" customWidth="1"/>
-    <col min="14" max="14" width="1.33203125" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="38.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.375" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.625" customWidth="1"/>
+    <col min="14" max="14" width="1.375" customWidth="1"/>
+    <col min="16" max="16" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="27"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+    <row r="1" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="10"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+    <row r="2" spans="1:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1122,15 +1123,15 @@
         <v>5</v>
       </c>
       <c r="L2" s="8"/>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
       <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1165,7 @@
       </c>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
@@ -1190,7 +1191,7 @@
       <c r="O4" s="19"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
@@ -1216,7 +1217,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
@@ -1242,7 +1243,7 @@
       <c r="O6" s="20"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1269,7 @@
       </c>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1324,7 @@
       <c r="O9" s="20"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -1349,7 +1350,7 @@
       </c>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
@@ -1375,7 +1376,7 @@
       <c r="O11" s="20"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -1399,7 +1400,7 @@
       <c r="O12" s="20"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1427,17 +1428,17 @@
         <f>SUM(K4:K12)</f>
         <v>7300</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="27">
         <f>SUM(M4:M12)</f>
         <v>2800</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="27">
         <f>SUM(O4:O12)</f>
         <v>1200</v>
       </c>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="25"/>
       <c r="D14" s="4"/>
